--- a/seeding/bass-guitars-seeding.xlsx
+++ b/seeding/bass-guitars-seeding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85FFB90-F673-4E86-A1D0-DB2C8E0F439F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1082F77B-0632-4039-AD06-790F008717AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{FCCB3FD7-56FB-44A7-8A7B-BD1E5D2B4346}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{FCCB3FD7-56FB-44A7-8A7B-BD1E5D2B4346}"/>
   </bookViews>
   <sheets>
     <sheet name="Bass Guitars Seeding" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
   <si>
     <t>Name</t>
   </si>
@@ -129,6 +129,375 @@
   </si>
   <si>
     <t>D. Lakin</t>
+  </si>
+  <si>
+    <t>Dahrendorf Guitars</t>
+  </si>
+  <si>
+    <t>De Gier</t>
+  </si>
+  <si>
+    <t>Devon Bass</t>
+  </si>
+  <si>
+    <t>Dingwall</t>
+  </si>
+  <si>
+    <t>Double Basses</t>
+  </si>
+  <si>
+    <t>Duesenberg</t>
+  </si>
+  <si>
+    <t>Duvoisin</t>
+  </si>
+  <si>
+    <t>Elrick</t>
+  </si>
+  <si>
+    <t>Enfield</t>
+  </si>
+  <si>
+    <t>Epiphone</t>
+  </si>
+  <si>
+    <t>Ergon Guitars</t>
+  </si>
+  <si>
+    <t>Esh</t>
+  </si>
+  <si>
+    <t>F Bass</t>
+  </si>
+  <si>
+    <t>Fender</t>
+  </si>
+  <si>
+    <t>Fibenare</t>
+  </si>
+  <si>
+    <t>Fodera</t>
+  </si>
+  <si>
+    <t>Franz Bassguitars</t>
+  </si>
+  <si>
+    <t>G&amp;L</t>
+  </si>
+  <si>
+    <t>Geoff Gould Basses</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Gillett</t>
+  </si>
+  <si>
+    <t>Glockenklang</t>
+  </si>
+  <si>
+    <t>Gretsch</t>
+  </si>
+  <si>
+    <t>Hagstrom</t>
+  </si>
+  <si>
+    <t>Hofner</t>
+  </si>
+  <si>
+    <t>Ibanez</t>
+  </si>
+  <si>
+    <t>J. Hamilton Guitars</t>
+  </si>
+  <si>
+    <t>JCR Luthier</t>
+  </si>
+  <si>
+    <t>Jens Ritter Instruments</t>
+  </si>
+  <si>
+    <t>Jerzy Drozd Basses</t>
+  </si>
+  <si>
+    <t>Kalium basses</t>
+  </si>
+  <si>
+    <t>KB Guitars and Basses</t>
+  </si>
+  <si>
+    <t>Ken Smith Basses</t>
+  </si>
+  <si>
+    <t>Kinal Basses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurus </t>
+  </si>
+  <si>
+    <t>L.H. McCurdy Basses</t>
+  </si>
+  <si>
+    <t>Lakland</t>
+  </si>
+  <si>
+    <t>Le Fay</t>
+  </si>
+  <si>
+    <t>ManaBasso</t>
+  </si>
+  <si>
+    <t>manabasso.com</t>
+  </si>
+  <si>
+    <t>Marco Bass Guitars</t>
+  </si>
+  <si>
+    <t>marcobassguitars.com</t>
+  </si>
+  <si>
+    <t>MarconiLab</t>
+  </si>
+  <si>
+    <t>Marleaux</t>
+  </si>
+  <si>
+    <t>Maruszczyk Instruments</t>
+  </si>
+  <si>
+    <t>Master Craftsman Sound</t>
+  </si>
+  <si>
+    <t>Mattison Bass</t>
+  </si>
+  <si>
+    <t>mattisonbass.com</t>
+  </si>
+  <si>
+    <t>Maurizio Uber</t>
+  </si>
+  <si>
+    <t>Mayones</t>
+  </si>
+  <si>
+    <t>MJB Basses</t>
+  </si>
+  <si>
+    <t>mgbassguitars.com</t>
+  </si>
+  <si>
+    <t>Mike Lull</t>
+  </si>
+  <si>
+    <t>Miura Guitars</t>
+  </si>
+  <si>
+    <t>Modulus Graphite</t>
+  </si>
+  <si>
+    <t>Moore Basses</t>
+  </si>
+  <si>
+    <t>MTD Bass</t>
+  </si>
+  <si>
+    <t>Music Man</t>
+  </si>
+  <si>
+    <t>New York Bass Works</t>
+  </si>
+  <si>
+    <t>NS Design</t>
+  </si>
+  <si>
+    <t>Oliver Lang Instruments</t>
+  </si>
+  <si>
+    <t>Opatik</t>
+  </si>
+  <si>
+    <t>Overwater Basses</t>
+  </si>
+  <si>
+    <t>Padalka Guitars</t>
+  </si>
+  <si>
+    <t>Paul Lairat</t>
+  </si>
+  <si>
+    <t>Performance Basses</t>
+  </si>
+  <si>
+    <t>Pratt Basses</t>
+  </si>
+  <si>
+    <t>Prestige Guitars</t>
+  </si>
+  <si>
+    <t>PRS Guitars</t>
+  </si>
+  <si>
+    <t>Regenerate Guitar Works</t>
+  </si>
+  <si>
+    <t>Retrovibe</t>
+  </si>
+  <si>
+    <t>Reverend</t>
+  </si>
+  <si>
+    <t>Rickenbacker</t>
+  </si>
+  <si>
+    <t>Rikkers Guitars</t>
+  </si>
+  <si>
+    <t>Ristola</t>
+  </si>
+  <si>
+    <t>Rob O'Reilly</t>
+  </si>
+  <si>
+    <t>Rocklin</t>
+  </si>
+  <si>
+    <t>Roscoe Guitars</t>
+  </si>
+  <si>
+    <t>Sadowsky</t>
+  </si>
+  <si>
+    <t>Safran Basses</t>
+  </si>
+  <si>
+    <t>Sandberg Guitars</t>
+  </si>
+  <si>
+    <t>Serek</t>
+  </si>
+  <si>
+    <t>Schecter</t>
+  </si>
+  <si>
+    <t>Schoenitz (Acoustic)</t>
+  </si>
+  <si>
+    <t>Skervessen</t>
+  </si>
+  <si>
+    <t>Skjold Design Basses</t>
+  </si>
+  <si>
+    <t>Sire</t>
+  </si>
+  <si>
+    <t>Sonntag</t>
+  </si>
+  <si>
+    <t>Spector</t>
+  </si>
+  <si>
+    <t>Steinberg</t>
+  </si>
+  <si>
+    <t>Stonefield</t>
+  </si>
+  <si>
+    <t>Stradi</t>
+  </si>
+  <si>
+    <t>Strandberg</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Supro</t>
+  </si>
+  <si>
+    <t>Surine</t>
+  </si>
+  <si>
+    <t>Swope</t>
+  </si>
+  <si>
+    <t>Tiny Boy</t>
+  </si>
+  <si>
+    <t>Tino Tedesco</t>
+  </si>
+  <si>
+    <t>TMG Guitar Co.</t>
+  </si>
+  <si>
+    <t>Torzal Guitar Co.</t>
+  </si>
+  <si>
+    <t>Traveler</t>
+  </si>
+  <si>
+    <t>UBass</t>
+  </si>
+  <si>
+    <t>Valenti Basses</t>
+  </si>
+  <si>
+    <t>Versoul</t>
+  </si>
+  <si>
+    <t>Vigier</t>
+  </si>
+  <si>
+    <t>Wal Basses</t>
+  </si>
+  <si>
+    <t>Warrior Basses</t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Wilkins</t>
+  </si>
+  <si>
+    <t>Wilcock London</t>
+  </si>
+  <si>
+    <t>Willcox</t>
+  </si>
+  <si>
+    <t>Wing Instruments</t>
+  </si>
+  <si>
+    <t>Wood Basses</t>
+  </si>
+  <si>
+    <t>Wreck</t>
+  </si>
+  <si>
+    <t>Wyn Guitars</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>Yanofsky</t>
+  </si>
+  <si>
+    <t>Xotic</t>
+  </si>
+  <si>
+    <t>Zakrzewski Basses-Poland</t>
+  </si>
+  <si>
+    <t>Zon</t>
+  </si>
+  <si>
+    <t>Wahlbrink Basses and Guitars</t>
+  </si>
+  <si>
+    <t>http://www.custom-instruments.com/1/instrumente/</t>
   </si>
 </sst>
 </file>
@@ -588,11 +957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03ED82-B795-4A81-A11F-8BF9198ADF76}">
-  <dimension ref="A1:K481"/>
+  <dimension ref="A1:K482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -769,130 +1138,671 @@
         <v>31</v>
       </c>
     </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="39" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="7"/>
     </row>
-    <row r="52" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="7"/>
     </row>
-    <row r="54" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="7"/>
     </row>
-    <row r="56" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
       <c r="C56" s="7"/>
     </row>
-    <row r="58" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
       <c r="C58" s="7"/>
     </row>
-    <row r="60" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="7"/>
     </row>
-    <row r="62" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
       <c r="C62" s="7"/>
     </row>
-    <row r="64" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
       <c r="C64" s="7"/>
     </row>
-    <row r="66" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
       <c r="C66" s="7"/>
     </row>
-    <row r="68" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
       <c r="C68" s="7"/>
     </row>
-    <row r="70" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
       <c r="C70" s="7"/>
     </row>
-    <row r="72" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
       <c r="C72" s="7"/>
     </row>
-    <row r="74" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
       <c r="C74" s="7"/>
     </row>
-    <row r="76" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
       <c r="C76" s="7"/>
     </row>
-    <row r="78" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
       <c r="C78" s="7"/>
     </row>
-    <row r="80" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>
     </row>
-    <row r="82" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
       <c r="C82" s="7"/>
     </row>
-    <row r="84" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
       <c r="C84" s="7"/>
     </row>
-    <row r="86" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
       <c r="C86" s="7"/>
     </row>
-    <row r="88" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
       <c r="C88" s="7"/>
     </row>
-    <row r="90" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
       <c r="C90" s="7"/>
     </row>
-    <row r="92" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>104</v>
+      </c>
       <c r="C92" s="7"/>
     </row>
-    <row r="117" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>129</v>
+      </c>
       <c r="B117" s="1"/>
     </row>
-    <row r="131" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="1"/>
-      <c r="C131" s="7"/>
-    </row>
-    <row r="133" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="1"/>
-      <c r="C133" s="7"/>
-    </row>
-    <row r="134" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>153</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="7"/>
+    </row>
+    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
       <c r="B134" s="1"/>
       <c r="C134" s="7"/>
     </row>
-    <row r="135" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
       <c r="B135" s="1"/>
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
       <c r="B136" s="1"/>
       <c r="C136" s="7"/>
     </row>
-    <row r="137" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="1"/>
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="1"/>
+    <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
       <c r="C139" s="7"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="1"/>
       <c r="C140" s="7"/>
-    </row>
-    <row r="141" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="7"/>
     </row>
     <row r="145" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,7 +1812,6 @@
       <c r="C146" s="7"/>
     </row>
     <row r="147" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="1"/>
       <c r="C147" s="7"/>
     </row>
     <row r="148" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -910,6 +1819,7 @@
       <c r="C148" s="7"/>
     </row>
     <row r="149" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
       <c r="C149" s="7"/>
     </row>
     <row r="150" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,17 +1838,17 @@
       <c r="C154" s="7"/>
     </row>
     <row r="155" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="1"/>
       <c r="C155" s="7"/>
     </row>
     <row r="156" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
       <c r="C156" s="7"/>
     </row>
     <row r="157" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="1"/>
       <c r="C157" s="7"/>
     </row>
     <row r="158" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
       <c r="C158" s="7"/>
     </row>
     <row r="159" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -969,10 +1879,10 @@
       <c r="C167" s="7"/>
     </row>
     <row r="168" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="1"/>
       <c r="C168" s="7"/>
     </row>
     <row r="169" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="1"/>
       <c r="C169" s="7"/>
     </row>
     <row r="170" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -988,14 +1898,14 @@
       <c r="C173" s="7"/>
     </row>
     <row r="174" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="1"/>
       <c r="C174" s="7"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
     </row>
     <row r="175" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="1"/>
       <c r="C175" s="7"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
     </row>
     <row r="176" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="7"/>
@@ -1028,24 +1938,24 @@
       <c r="C185" s="7"/>
     </row>
     <row r="186" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="4"/>
       <c r="C186" s="7"/>
     </row>
     <row r="187" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="1"/>
+      <c r="B187" s="4"/>
       <c r="C187" s="7"/>
     </row>
     <row r="188" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="1"/>
       <c r="C188" s="7"/>
-      <c r="J188">
+    </row>
+    <row r="189" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="7"/>
+      <c r="J189">
         <v>29526</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="1"/>
-      <c r="C189" s="7"/>
-    </row>
     <row r="190" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="1"/>
       <c r="C190" s="7"/>
     </row>
     <row r="191" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,10 +1968,10 @@
       <c r="C193" s="7"/>
     </row>
     <row r="194" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="1"/>
       <c r="C194" s="7"/>
     </row>
     <row r="195" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="1"/>
       <c r="C195" s="7"/>
     </row>
     <row r="196" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1074,14 +1984,14 @@
       <c r="C198" s="7"/>
     </row>
     <row r="199" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="4"/>
-      <c r="C199" s="8"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
+      <c r="C199" s="7"/>
     </row>
     <row r="200" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C200" s="7"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="8"/>
     </row>
     <row r="201" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C201" s="7"/>
@@ -1117,14 +2027,13 @@
       <c r="C211" s="7"/>
     </row>
     <row r="212" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="1"/>
       <c r="C212" s="7"/>
     </row>
     <row r="213" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="1"/>
       <c r="C213" s="7"/>
     </row>
     <row r="214" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="1"/>
       <c r="C214" s="7"/>
     </row>
     <row r="215" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1132,6 +2041,7 @@
       <c r="C215" s="7"/>
     </row>
     <row r="216" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="1"/>
       <c r="C216" s="7"/>
     </row>
     <row r="217" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1174,7 +2084,6 @@
       <c r="C229" s="7"/>
     </row>
     <row r="230" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="1"/>
       <c r="C230" s="7"/>
     </row>
     <row r="231" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,6 +2091,7 @@
       <c r="C231" s="7"/>
     </row>
     <row r="232" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="1"/>
       <c r="C232" s="7"/>
     </row>
     <row r="233" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1221,10 +2131,10 @@
       <c r="C244" s="7"/>
     </row>
     <row r="245" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="1"/>
       <c r="C245" s="7"/>
     </row>
     <row r="246" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="1"/>
       <c r="C246" s="7"/>
     </row>
     <row r="247" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,10 +2168,10 @@
       <c r="C256" s="7"/>
     </row>
     <row r="257" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="1"/>
       <c r="C257" s="7"/>
     </row>
     <row r="258" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="1"/>
       <c r="C258" s="7"/>
     </row>
     <row r="259" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,20 +2181,20 @@
       <c r="C260" s="7"/>
     </row>
     <row r="261" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="1"/>
       <c r="C261" s="7"/>
     </row>
     <row r="262" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="1"/>
       <c r="C262" s="7"/>
     </row>
     <row r="263" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="7"/>
     </row>
     <row r="264" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="1"/>
       <c r="C264" s="7"/>
     </row>
     <row r="265" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="1"/>
       <c r="C265" s="7"/>
     </row>
     <row r="266" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1333,20 +2243,20 @@
       <c r="C280" s="7"/>
     </row>
     <row r="281" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="1"/>
       <c r="C281" s="7"/>
     </row>
     <row r="282" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="1"/>
       <c r="C282" s="7"/>
     </row>
     <row r="283" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C283" s="7"/>
     </row>
     <row r="284" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="1"/>
       <c r="C284" s="7"/>
     </row>
     <row r="285" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="1"/>
       <c r="C285" s="7"/>
     </row>
     <row r="286" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1407,17 +2317,17 @@
       <c r="C304" s="7"/>
     </row>
     <row r="305" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="1"/>
       <c r="C305" s="7"/>
     </row>
     <row r="306" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="1"/>
       <c r="C306" s="7"/>
     </row>
     <row r="307" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="1"/>
       <c r="C307" s="7"/>
     </row>
     <row r="308" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="1"/>
       <c r="C308" s="7"/>
     </row>
     <row r="309" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,20 +2340,20 @@
       <c r="C311" s="7"/>
     </row>
     <row r="312" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="1"/>
       <c r="C312" s="7"/>
     </row>
     <row r="313" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="1"/>
       <c r="C313" s="7"/>
     </row>
     <row r="314" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C314" s="7"/>
     </row>
     <row r="315" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="1"/>
       <c r="C315" s="7"/>
     </row>
     <row r="316" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="1"/>
       <c r="C316" s="7"/>
     </row>
     <row r="317" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,10 +2381,10 @@
       <c r="C324" s="7"/>
     </row>
     <row r="325" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="1"/>
       <c r="C325" s="7"/>
     </row>
     <row r="326" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="1"/>
       <c r="C326" s="7"/>
     </row>
     <row r="327" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,7 +2397,6 @@
       <c r="C329" s="7"/>
     </row>
     <row r="330" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="1"/>
       <c r="C330" s="7"/>
     </row>
     <row r="331" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,6 +2404,7 @@
       <c r="C331" s="7"/>
     </row>
     <row r="332" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="1"/>
       <c r="C332" s="7"/>
     </row>
     <row r="333" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,10 +2414,10 @@
       <c r="C334" s="7"/>
     </row>
     <row r="335" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="1"/>
       <c r="C335" s="7"/>
     </row>
     <row r="336" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="1"/>
       <c r="C336" s="7"/>
     </row>
     <row r="337" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1613,7 +2523,6 @@
       <c r="C370" s="7"/>
     </row>
     <row r="371" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="1"/>
       <c r="C371" s="7"/>
     </row>
     <row r="372" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1621,6 +2530,7 @@
       <c r="C372" s="7"/>
     </row>
     <row r="373" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="1"/>
       <c r="C373" s="7"/>
     </row>
     <row r="374" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1705,7 +2615,6 @@
       <c r="C400" s="7"/>
     </row>
     <row r="401" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B401" s="1"/>
       <c r="C401" s="7"/>
     </row>
     <row r="402" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,17 +2622,17 @@
       <c r="C402" s="7"/>
     </row>
     <row r="403" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" s="1"/>
       <c r="C403" s="7"/>
     </row>
     <row r="404" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B404" s="1"/>
       <c r="C404" s="7"/>
     </row>
     <row r="405" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="1"/>
       <c r="C405" s="7"/>
     </row>
     <row r="406" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="1"/>
       <c r="C406" s="7"/>
     </row>
     <row r="407" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1731,6 +2640,7 @@
       <c r="C407" s="7"/>
     </row>
     <row r="408" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="1"/>
       <c r="C408" s="7"/>
     </row>
     <row r="409" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1757,47 +2667,46 @@
     <row r="416" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C416" s="7"/>
     </row>
-    <row r="417" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C417" s="7"/>
     </row>
-    <row r="418" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C418" s="7"/>
     </row>
-    <row r="420" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C420" s="7"/>
-    </row>
-    <row r="421" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C419" s="7"/>
+    </row>
+    <row r="421" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C421" s="7"/>
     </row>
-    <row r="422" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C422" s="7"/>
     </row>
-    <row r="423" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C423" s="7"/>
     </row>
-    <row r="425" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C425" s="7"/>
-    </row>
-    <row r="426" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C424" s="7"/>
+    </row>
+    <row r="426" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C426" s="7"/>
     </row>
-    <row r="427" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C427" s="7"/>
     </row>
-    <row r="428" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C428" s="7"/>
     </row>
-    <row r="429" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C429" s="7"/>
     </row>
-    <row r="430" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C430" s="7"/>
     </row>
-    <row r="431" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C431" s="7"/>
     </row>
-    <row r="432" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="1"/>
+    <row r="432" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C432" s="7"/>
     </row>
     <row r="433" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1805,6 +2714,7 @@
       <c r="C433" s="7"/>
     </row>
     <row r="434" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B434" s="1"/>
       <c r="C434" s="7"/>
     </row>
     <row r="435" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1912,8 +2822,8 @@
     <row r="469" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C469" s="7"/>
     </row>
-    <row r="471" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C471" s="7"/>
+    <row r="470" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C470" s="7"/>
     </row>
     <row r="472" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C472" s="7"/>
@@ -1925,7 +2835,6 @@
       <c r="C474" s="7"/>
     </row>
     <row r="475" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="4"/>
       <c r="C475" s="7"/>
     </row>
     <row r="476" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1933,6 +2842,7 @@
       <c r="C476" s="7"/>
     </row>
     <row r="477" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B477" s="4"/>
       <c r="C477" s="7"/>
     </row>
     <row r="478" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,11 +2857,17 @@
     <row r="481" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C481" s="7"/>
     </row>
+    <row r="482" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C482" s="7"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J481">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J482">
     <sortCondition ref="A2"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B126" r:id="rId1" xr:uid="{460E6B52-46D4-45DB-A820-5BE248DDF656}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/seeding/bass-guitars-seeding.xlsx
+++ b/seeding/bass-guitars-seeding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1082F77B-0632-4039-AD06-790F008717AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9738D1-8CF9-42AD-87E2-EC65D2B6B9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{FCCB3FD7-56FB-44A7-8A7B-BD1E5D2B4346}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCCB3FD7-56FB-44A7-8A7B-BD1E5D2B4346}"/>
   </bookViews>
   <sheets>
     <sheet name="Bass Guitars Seeding" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -401,9 +401,6 @@
     <t>Steinberg</t>
   </si>
   <si>
-    <t>Stonefield</t>
-  </si>
-  <si>
     <t>Stradi</t>
   </si>
   <si>
@@ -498,6 +495,24 @@
   </si>
   <si>
     <t>http://www.custom-instruments.com/1/instrumente/</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>https://www.modulusgraphite.com/</t>
+  </si>
+  <si>
+    <t>Stonefield Basses</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Swan Custom Basses</t>
+  </si>
+  <si>
+    <t>Argentina</t>
   </si>
 </sst>
 </file>
@@ -957,11 +972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03ED82-B795-4A81-A11F-8BF9198ADF76}">
-  <dimension ref="A1:K482"/>
+  <dimension ref="A1:K483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1386,6 +1401,9 @@
       <c r="B67" t="s">
         <v>79</v>
       </c>
+      <c r="C67" s="6" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1427,6 +1445,9 @@
       <c r="A74" t="s">
         <v>86</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,254 +1570,262 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="114" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>129</v>
       </c>
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    </row>
+    <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="122" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="123" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="126" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="127" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>153</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="7"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="7"/>
     </row>
     <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>145</v>
-      </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="7"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="7"/>
     </row>
     <row r="136" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="7"/>
     </row>
     <row r="137" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="7"/>
     </row>
     <row r="138" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B138" s="1"/>
       <c r="C138" s="7"/>
     </row>
     <row r="139" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C139" s="7"/>
     </row>
     <row r="140" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>151</v>
-      </c>
-      <c r="B140" s="1"/>
+        <v>149</v>
+      </c>
       <c r="C140" s="7"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
     </row>
     <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>152</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B141" s="1"/>
       <c r="C141" s="7"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
     </row>
     <row r="142" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
       <c r="C142" s="7"/>
     </row>
     <row r="143" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,7 +1844,6 @@
       <c r="C147" s="7"/>
     </row>
     <row r="148" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="1"/>
       <c r="C148" s="7"/>
     </row>
     <row r="149" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,6 +1851,7 @@
       <c r="C149" s="7"/>
     </row>
     <row r="150" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
       <c r="C150" s="7"/>
     </row>
     <row r="151" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1841,17 +1870,17 @@
       <c r="C155" s="7"/>
     </row>
     <row r="156" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="1"/>
       <c r="C156" s="7"/>
     </row>
     <row r="157" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
       <c r="C157" s="7"/>
     </row>
     <row r="158" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="1"/>
       <c r="C158" s="7"/>
     </row>
     <row r="159" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
       <c r="C159" s="7"/>
     </row>
     <row r="160" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,10 +1911,10 @@
       <c r="C168" s="7"/>
     </row>
     <row r="169" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="1"/>
       <c r="C169" s="7"/>
     </row>
     <row r="170" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
       <c r="C170" s="7"/>
     </row>
     <row r="171" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1901,14 +1930,14 @@
       <c r="C174" s="7"/>
     </row>
     <row r="175" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="1"/>
       <c r="C175" s="7"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
     </row>
     <row r="176" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="1"/>
       <c r="C176" s="7"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
     </row>
     <row r="177" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C177" s="7"/>
@@ -1941,24 +1970,24 @@
       <c r="C186" s="7"/>
     </row>
     <row r="187" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="4"/>
       <c r="C187" s="7"/>
     </row>
     <row r="188" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="1"/>
+      <c r="B188" s="4"/>
       <c r="C188" s="7"/>
     </row>
     <row r="189" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="1"/>
       <c r="C189" s="7"/>
-      <c r="J189">
+    </row>
+    <row r="190" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="7"/>
+      <c r="J190">
         <v>29526</v>
       </c>
     </row>
-    <row r="190" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="1"/>
-      <c r="C190" s="7"/>
-    </row>
     <row r="191" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="1"/>
       <c r="C191" s="7"/>
     </row>
     <row r="192" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,10 +2000,10 @@
       <c r="C194" s="7"/>
     </row>
     <row r="195" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="1"/>
       <c r="C195" s="7"/>
     </row>
     <row r="196" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="1"/>
       <c r="C196" s="7"/>
     </row>
     <row r="197" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1987,14 +2016,14 @@
       <c r="C199" s="7"/>
     </row>
     <row r="200" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="4"/>
-      <c r="C200" s="8"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
+      <c r="C200" s="7"/>
     </row>
     <row r="201" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C201" s="7"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="8"/>
     </row>
     <row r="202" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C202" s="7"/>
@@ -2030,14 +2059,13 @@
       <c r="C212" s="7"/>
     </row>
     <row r="213" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="1"/>
       <c r="C213" s="7"/>
     </row>
     <row r="214" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="1"/>
       <c r="C214" s="7"/>
     </row>
     <row r="215" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="1"/>
       <c r="C215" s="7"/>
     </row>
     <row r="216" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2045,6 +2073,7 @@
       <c r="C216" s="7"/>
     </row>
     <row r="217" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="1"/>
       <c r="C217" s="7"/>
     </row>
     <row r="218" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,7 +2116,6 @@
       <c r="C230" s="7"/>
     </row>
     <row r="231" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="1"/>
       <c r="C231" s="7"/>
     </row>
     <row r="232" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,6 +2123,7 @@
       <c r="C232" s="7"/>
     </row>
     <row r="233" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="1"/>
       <c r="C233" s="7"/>
     </row>
     <row r="234" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,10 +2163,10 @@
       <c r="C245" s="7"/>
     </row>
     <row r="246" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="1"/>
       <c r="C246" s="7"/>
     </row>
     <row r="247" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="1"/>
       <c r="C247" s="7"/>
     </row>
     <row r="248" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2171,10 +2200,10 @@
       <c r="C257" s="7"/>
     </row>
     <row r="258" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="1"/>
       <c r="C258" s="7"/>
     </row>
     <row r="259" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="1"/>
       <c r="C259" s="7"/>
     </row>
     <row r="260" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,20 +2213,20 @@
       <c r="C261" s="7"/>
     </row>
     <row r="262" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="1"/>
       <c r="C262" s="7"/>
     </row>
     <row r="263" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="1"/>
       <c r="C263" s="7"/>
     </row>
     <row r="264" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="7"/>
     </row>
     <row r="265" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="1"/>
       <c r="C265" s="7"/>
     </row>
     <row r="266" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="1"/>
       <c r="C266" s="7"/>
     </row>
     <row r="267" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2246,20 +2275,20 @@
       <c r="C281" s="7"/>
     </row>
     <row r="282" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="1"/>
       <c r="C282" s="7"/>
     </row>
     <row r="283" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="1"/>
       <c r="C283" s="7"/>
     </row>
     <row r="284" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C284" s="7"/>
     </row>
     <row r="285" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="1"/>
       <c r="C285" s="7"/>
     </row>
     <row r="286" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="1"/>
       <c r="C286" s="7"/>
     </row>
     <row r="287" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2320,17 +2349,17 @@
       <c r="C305" s="7"/>
     </row>
     <row r="306" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="1"/>
       <c r="C306" s="7"/>
     </row>
     <row r="307" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="1"/>
       <c r="C307" s="7"/>
     </row>
     <row r="308" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="1"/>
       <c r="C308" s="7"/>
     </row>
     <row r="309" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="1"/>
       <c r="C309" s="7"/>
     </row>
     <row r="310" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2343,20 +2372,20 @@
       <c r="C312" s="7"/>
     </row>
     <row r="313" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="1"/>
       <c r="C313" s="7"/>
     </row>
     <row r="314" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="1"/>
       <c r="C314" s="7"/>
     </row>
     <row r="315" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C315" s="7"/>
     </row>
     <row r="316" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="1"/>
       <c r="C316" s="7"/>
     </row>
     <row r="317" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="1"/>
       <c r="C317" s="7"/>
     </row>
     <row r="318" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2384,10 +2413,10 @@
       <c r="C325" s="7"/>
     </row>
     <row r="326" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="1"/>
       <c r="C326" s="7"/>
     </row>
     <row r="327" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="1"/>
       <c r="C327" s="7"/>
     </row>
     <row r="328" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2400,7 +2429,6 @@
       <c r="C330" s="7"/>
     </row>
     <row r="331" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="1"/>
       <c r="C331" s="7"/>
     </row>
     <row r="332" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2408,6 +2436,7 @@
       <c r="C332" s="7"/>
     </row>
     <row r="333" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="1"/>
       <c r="C333" s="7"/>
     </row>
     <row r="334" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2417,55 +2446,55 @@
       <c r="C335" s="7"/>
     </row>
     <row r="336" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="1"/>
       <c r="C336" s="7"/>
     </row>
-    <row r="337" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="1"/>
       <c r="C337" s="7"/>
     </row>
-    <row r="338" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C338" s="7"/>
     </row>
-    <row r="339" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C339" s="7"/>
     </row>
-    <row r="340" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C340" s="7"/>
     </row>
-    <row r="341" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C341" s="7"/>
     </row>
-    <row r="342" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C342" s="7"/>
     </row>
-    <row r="343" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C343" s="7"/>
     </row>
-    <row r="344" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C344" s="7"/>
     </row>
-    <row r="345" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C345" s="7"/>
     </row>
-    <row r="346" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C346" s="7"/>
     </row>
-    <row r="347" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C347" s="7"/>
     </row>
-    <row r="348" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C348" s="7"/>
     </row>
-    <row r="349" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C349" s="7"/>
     </row>
-    <row r="350" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C350" s="7"/>
     </row>
-    <row r="351" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C351" s="7"/>
     </row>
-    <row r="352" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C352" s="7"/>
     </row>
     <row r="353" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2526,7 +2555,6 @@
       <c r="C371" s="7"/>
     </row>
     <row r="372" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="1"/>
       <c r="C372" s="7"/>
     </row>
     <row r="373" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,6 +2562,7 @@
       <c r="C373" s="7"/>
     </row>
     <row r="374" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B374" s="1"/>
       <c r="C374" s="7"/>
     </row>
     <row r="375" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2618,7 +2647,6 @@
       <c r="C401" s="7"/>
     </row>
     <row r="402" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="1"/>
       <c r="C402" s="7"/>
     </row>
     <row r="403" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2626,17 +2654,17 @@
       <c r="C403" s="7"/>
     </row>
     <row r="404" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="1"/>
       <c r="C404" s="7"/>
     </row>
     <row r="405" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="1"/>
       <c r="C405" s="7"/>
     </row>
     <row r="406" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" s="1"/>
       <c r="C406" s="7"/>
     </row>
     <row r="407" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B407" s="1"/>
       <c r="C407" s="7"/>
     </row>
     <row r="408" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2644,6 +2672,7 @@
       <c r="C408" s="7"/>
     </row>
     <row r="409" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B409" s="1"/>
       <c r="C409" s="7"/>
     </row>
     <row r="410" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2676,8 +2705,8 @@
     <row r="419" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C419" s="7"/>
     </row>
-    <row r="421" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C421" s="7"/>
+    <row r="420" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C420" s="7"/>
     </row>
     <row r="422" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C422" s="7"/>
@@ -2688,8 +2717,8 @@
     <row r="424" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C424" s="7"/>
     </row>
-    <row r="426" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C426" s="7"/>
+    <row r="425" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C425" s="7"/>
     </row>
     <row r="427" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C427" s="7"/>
@@ -2710,7 +2739,6 @@
       <c r="C432" s="7"/>
     </row>
     <row r="433" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B433" s="1"/>
       <c r="C433" s="7"/>
     </row>
     <row r="434" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,6 +2746,7 @@
       <c r="C434" s="7"/>
     </row>
     <row r="435" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B435" s="1"/>
       <c r="C435" s="7"/>
     </row>
     <row r="436" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2825,8 +2854,8 @@
     <row r="470" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C470" s="7"/>
     </row>
-    <row r="472" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C472" s="7"/>
+    <row r="471" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C471" s="7"/>
     </row>
     <row r="473" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C473" s="7"/>
@@ -2838,7 +2867,6 @@
       <c r="C475" s="7"/>
     </row>
     <row r="476" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="4"/>
       <c r="C476" s="7"/>
     </row>
     <row r="477" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2846,6 +2874,7 @@
       <c r="C477" s="7"/>
     </row>
     <row r="478" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="4"/>
       <c r="C478" s="7"/>
     </row>
     <row r="479" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2860,14 +2889,18 @@
     <row r="482" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C482" s="7"/>
     </row>
+    <row r="483" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C483" s="7"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J482">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J483">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B126" r:id="rId1" xr:uid="{460E6B52-46D4-45DB-A820-5BE248DDF656}"/>
+    <hyperlink ref="B127" r:id="rId1" xr:uid="{460E6B52-46D4-45DB-A820-5BE248DDF656}"/>
+    <hyperlink ref="B74" r:id="rId2" xr:uid="{7A23C5C9-2E38-4F95-88FC-DD85AA6D141E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>